--- a/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_021.xlsx
+++ b/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_021.xlsx
@@ -31,318 +31,318 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295031EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295021AA1.01) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) Reactor water cleanup system</t>
-  </si>
-  <si>
-    <t>(700000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Over-excitation</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295037EK2.20) Knowledge of the relationship between the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN and the following systems or components: (CFR: 41.7 / 41.8 / 45.8) High-pressure core spray</t>
-  </si>
-  <si>
-    <t>(295023AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Refueling interlocks</t>
-  </si>
-  <si>
-    <t>(295025EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(600000AA1.02) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Fire detectors/heat detectors </t>
-  </si>
-  <si>
-    <t>(295003AK1.07) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Load sequencing</t>
-  </si>
-  <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295019AK2.18) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Safety/relief valves</t>
-  </si>
-  <si>
-    <t>(295016AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Turbine trip</t>
-  </si>
-  <si>
-    <t>(295038EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Meteorological data</t>
-  </si>
-  <si>
-    <t>(295026EA1.07) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) HPCS</t>
-  </si>
-  <si>
-    <t>(295004AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Battery capacity</t>
-  </si>
-  <si>
-    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295030EK2.02) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) RCIC</t>
-  </si>
-  <si>
-    <t>(295006AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Reactor water level setpoint setdown</t>
-  </si>
-  <si>
-    <t>(295024EA2.12) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Safety/relief valves</t>
-  </si>
-  <si>
-    <t>(295001AA1.04) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) RCIS (BWR 6)</t>
-  </si>
-  <si>
-    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.2.42) EQUIPMENT CONTROL Ability to recognize system parameters that are entry-level conditions for technical specifications (CFR: 41.7 / 41.10 / 43.2 / 43.3 / 45.3)</t>
-  </si>
-  <si>
-    <t>(295007AK2.01) Knowledge of the relationship between the (APE 7) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(295034EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.5 / 45.6) Isolating secondary containment ventilation</t>
-  </si>
-  <si>
-    <t>(295002AA2.01) Ability to determine and/or interpret the following as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.10 / 43.5 / 45.13) Condenser vacuum</t>
-  </si>
-  <si>
-    <t>(295035EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.7 / 45.6) Secondary containment ventilation</t>
-  </si>
-  <si>
-    <t>(295036EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.8 to 41.10) Radiation releases</t>
+    <t>(295025EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
+  </si>
+  <si>
+    <t>(295038EK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Filtered vs. nonfiltered release</t>
+  </si>
+  <si>
+    <t>(295005AA1.02) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) RPS</t>
+  </si>
+  <si>
+    <t>(700000AK2.01) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Motors</t>
+  </si>
+  <si>
+    <t>(295016AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Abandonment criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295004AA2.01) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of DC power </t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295037EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Cold shutdown boron weight</t>
+  </si>
+  <si>
+    <t>(295031EA1.11) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) Condensate system</t>
+  </si>
+  <si>
+    <t>(295023AK2.05) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) Secondary containment ventilation</t>
+  </si>
+  <si>
+    <t>(600000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Steps called out in the site fire protection plant, fire protection system manual, and fire zone manual</t>
+  </si>
+  <si>
+    <t>(295003AA2.01) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of AC power</t>
+  </si>
+  <si>
+    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295021AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(295001AA1.03) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) REACTOR MANUAL CONTROL SYSTEM (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(295006AK2.03) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) CRD hydraulic system</t>
+  </si>
+  <si>
+    <t>(295018AK3.07) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Cross-connecting with backup systems</t>
+  </si>
+  <si>
+    <t>(295030EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression chamber pressure</t>
+  </si>
+  <si>
+    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
+  </si>
+  <si>
+    <t>(295014AA1.02) Ability to operate and/or monitor the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.7 / 45.6) Recirculation flow control system</t>
+  </si>
+  <si>
+    <t>(295029EK2.03) Knowledge of the relationship between the (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) HPCS</t>
+  </si>
+  <si>
+    <t>(295013AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.5 / 45.6) Limiting heat additions</t>
+  </si>
+  <si>
+    <t>(295020AA2.08) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) High-energy line break</t>
+  </si>
+  <si>
+    <t>(295010) (APE 10) HIGH DRYWELL PRESSURE (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295036EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.8 to 41.10) Maximum normal operating limit</t>
+  </si>
+  <si>
+    <t>(205000K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(211000A4.06) Ability to manually operate and/or monitor the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) RWCU system isolation</t>
+  </si>
+  <si>
+    <t>(209001A3.02) Ability to monitor automatic operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Pump start</t>
+  </si>
+  <si>
+    <t>(510000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Flood prevention</t>
+  </si>
+  <si>
+    <t>(209002K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Condensate system</t>
+  </si>
+  <si>
+    <t>(262002K4.01) Knowledge of (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) design features and/or interlocks that provide for the following: (CFR: 41.7) Transfer of power supplies</t>
+  </si>
+  <si>
+    <t>(259002A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.5 / 45.5) TDRFP speed</t>
+  </si>
+  <si>
+    <t>(223002A2.01) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) AC electrical distribution failures</t>
+  </si>
+  <si>
+    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(203000K3.02) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(215005K2.02) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR Knowledge of electrical power supplies to the following: (CFR: 41.7) APRM channels</t>
+  </si>
+  <si>
+    <t>(264000K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.7 / 45.7) AC electrical distribution system</t>
+  </si>
+  <si>
+    <t>(212000A4.13) Ability to manually operate and/or monitor the (SF7 RPS) REACTOR PROTECTION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Individual control rod SCRAM testing</t>
+  </si>
+  <si>
+    <t>(215003A3.03) Ability to monitor automatic operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) SCRAM signals</t>
+  </si>
+  <si>
+    <t>(261000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.5 / 45.3) Primary containment pressure changes</t>
+  </si>
+  <si>
+    <t>(262001K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 AC) AC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Offsite power system</t>
+  </si>
+  <si>
+    <t>(215004K4.02) Knowledge of (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Reactor SCRAM signals</t>
+  </si>
+  <si>
+    <t>(400000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.5 / 45.5) CCW temperature</t>
+  </si>
+  <si>
+    <t>(217000A2.07) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of lube oil</t>
+  </si>
+  <si>
+    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (291003K1.01) CONTROLLERS AND POSITIONERS (CFR: 41.7) Function and operation of flow controller in manual and automatic modes</t>
   </si>
   <si>
     <t>(218000K3.02) Knowledge of the effect that a loss or malfunction of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor pressure</t>
   </si>
   <si>
-    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(217000A2.04) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) AC power loss</t>
-  </si>
-  <si>
-    <t>(262002K1.14) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(211000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.7 / 45.7) Plant air systems</t>
-  </si>
-  <si>
-    <t>(209001K2.03) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Initiation logic</t>
-  </si>
-  <si>
-    <t>(264000A4.01) Ability to manually operate and/or monitor the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) in the control room: (CFR: 41.7 / 45.5 to 45.8) Voltage/frequency</t>
-  </si>
-  <si>
-    <t>(239002A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.5 / 45.5) Reactor power</t>
-  </si>
-  <si>
-    <t>(209002K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(203000A3.07) Ability to monitor automatic operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Loop selection</t>
-  </si>
-  <si>
-    <t>(212000K4.03) Knowledge of (SF7 RPS) REACTOR PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Transferring RPS power supplies</t>
-  </si>
-  <si>
-    <t>(215003K3.02) Knowledge of the effect that a loss or malfunction of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor manual control</t>
-  </si>
-  <si>
-    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (291003K1.03) CONTROLLERS AND POSITIONERS (CFR: 41.7) Operation of valve controllers in manual and automatic modes, including seal-in features</t>
-  </si>
-  <si>
-    <t>(300000A2.01) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Air dryer and filter malfunctions</t>
-  </si>
-  <si>
-    <t>(400000K1.12) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 to 45.8) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) (BWR 4, 5, 6)</t>
-  </si>
-  <si>
-    <t>(259002K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.7 / 45.7) Main steam flow input</t>
-  </si>
-  <si>
-    <t>(261000K2.03) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Standby gas treatment system initiation logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(215005A4.01) Ability to manually operate and/or monitor the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR in the control room: (CFR: 41.7 / 45.5 to 45.8) IRM/APRM recorder </t>
-  </si>
-  <si>
-    <t>(205000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.5 / 45.5) Temperatures</t>
-  </si>
-  <si>
-    <t>(263000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Hydrogen generation</t>
-  </si>
-  <si>
-    <t>(262001A3.04) Ability to monitor automatic operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Load sequencing</t>
-  </si>
-  <si>
-    <t>(223002K4.06) Knowledge of (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF design features and/or interlocks that provide for the following: (CFR: 41.7) Once initiated, system reset requires deliberate operator action</t>
-  </si>
-  <si>
-    <t>(218000K3.01) Knowledge of the effect that a loss or malfunction of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
-  </si>
-  <si>
-    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(217000A2.02) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Turbine trips</t>
-  </si>
-  <si>
-    <t>(262002K1.12) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Main turbine generator and auxiliary systems</t>
-  </si>
-  <si>
-    <t>(202002A3.04) Ability to monitor automatic operation of the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM including: (CFR: 41.7 / 45.7) System lockups/lockouts</t>
-  </si>
-  <si>
-    <t>(271000K4.03) Knowledge of (SF9 OG) OFFGAS SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Sufficient oxygen providing for complete hydrogen recombination</t>
-  </si>
-  <si>
-    <t>(234000K3.04) Knowledge of the effect that a loss or malfunction of the (SF8 FH) FUEL HANDLING will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Core modifications/alterations</t>
-  </si>
-  <si>
-    <t>(286000) (SF8 FPS) FIRE PROTECTION SYSTEM  (291001K1.05) VALVES (CFR: 41.3) The significance of stem position (valve status) for gate valves</t>
-  </si>
-  <si>
-    <t>(202001A2.22) Ability to (a) predict the impacts of the following on the (SF1, SF4 RS) RECIRCULATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of component cooling water</t>
-  </si>
-  <si>
-    <t>(241000K1.16) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Component cooling water systems</t>
-  </si>
-  <si>
-    <t>(219000K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE: (CFR: 41.7 / 45.7) CCW system</t>
-  </si>
-  <si>
-    <t>(201003K4.05) Knowledge of (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM design features and/or interlocks that provide for the following: (CFR: 41.1-7 / 41.10 / 45.1-6) Rod position indication</t>
-  </si>
-  <si>
-    <t>(290002K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 RVI) REACTOR VESSEL INTERNALS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Main steam system</t>
-  </si>
-  <si>
-    <t>(201005A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(290003K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 CRV) CONTROL ROOM VENTILATION: (CFR: 41.5 / 45.3) Control of airborne contamination (e.g., radiological, toxic gas, smoke)</t>
-  </si>
-  <si>
-    <t>(G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(292003K1.09) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define doubling time and calculate it using the power</t>
-  </si>
-  <si>
-    <t>(292001K1.05) NEUTRONS (CFR: 41.1) Identify characteristics of good moderators</t>
-  </si>
-  <si>
-    <t>(292004K1.14) REACTIVITY COEFFICIENTS (CFR: 41.1) Compare the relative magnitudes of the temperature, Doppler, and void coefficients of reactivity</t>
+    <t>(263000K2.01) (SF6 DC) DC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) Operationally significant DC loads</t>
+  </si>
+  <si>
+    <t>(205000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(211000A4.02) Ability to manually operate and/or monitor the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) SLCS control switch</t>
+  </si>
+  <si>
+    <t>(209001A3.01) Ability to monitor automatic operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(510000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Intake/traveling screen high differential pressure/ differential level</t>
+  </si>
+  <si>
+    <t>(204000K3.03) Knowledge of the effect that a loss or malfunction of the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Component cooling water systems</t>
+  </si>
+  <si>
+    <t>(245000K2.02) (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS Knowledge of electrical power supplies to the following: (CFR: 41.7) Lube oil pumps</t>
+  </si>
+  <si>
+    <t>(510001K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CWS*) CIRCULATING WATER SYSTEM: (CFR: 41.7 / 45.7) Pump trip</t>
+  </si>
+  <si>
+    <t>(201001A4.07) Ability to manually operate and/or monitor the (SF1 CRDH) CRD HYDRAULIC SYSTEM in the control room: (CFR: 41.5-7 / 41.9 / 41.10 / 45.1-6 / 45.8 / 45.12-13) Stabilizing valve selector switch</t>
+  </si>
+  <si>
+    <t>(241000A3.08) Ability to monitor automatic operation of the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM including: (CFR: 41.7 / 45.7) Main turbine bypass valve operation</t>
+  </si>
+  <si>
+    <t>(259001K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 FWS) FEEDWATER SYSTEM: (CFR: 41.5 / 45.3) Feedwater heaters, including heater drain pumps</t>
+  </si>
+  <si>
+    <t>(202002K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor feedwater system</t>
+  </si>
+  <si>
+    <t>(201003K4.01) Knowledge of (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM design features and/or interlocks that provide for the following: (CFR: 41.1-7 / 41.10 / 45.1-6) Limiting control rod velocity in the event of a rod drop</t>
+  </si>
+  <si>
+    <t>(223001A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES including: (CFR: 41.5 / 45.5) Containment pressure</t>
+  </si>
+  <si>
+    <t>(272000A2.09) Ability to (a) predict the impacts of the following on the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Low fuel pool level</t>
+  </si>
+  <si>
+    <t>(290002) (SF4 RVI) REACTOR VESSEL INTERNALS (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+  </si>
+  <si>
+    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292005K1.04) CONTROL RODS (CFR: 41.1) Predict direction of change in reactor power for a change in control rod position</t>
+  </si>
+  <si>
+    <t>(292008K1.19) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (POWER OPERATION) Explain transient and steady-state effects of a control rod withdrawal on reactor power and void fraction content</t>
+  </si>
+  <si>
+    <t>(292004K1.03) REACTIVITY COEFFICIENTS (CFR: 41.1) Explain resonance absorption</t>
+  </si>
+  <si>
+    <t>(293004K1.04) THERMODYNAMIC PROCESS (CFR: 41.14) (NOZZLES) Describe the functions of nozzles in air ejectors</t>
   </si>
   <si>
     <t>(293005K1.05) THERMODYNAMIC CYCLES (CFR: 41.14) State the advantages of moisture separators/reheaters and feedwater heaters for a typical steam cycle</t>
   </si>
   <si>
-    <t>(293010K1.05) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the effect of fast neutron irradiation on reactor vessel metals</t>
-  </si>
-  <si>
-    <t>(293004K1.04) THERMODYNAMIC PROCESS (CFR: 41.14) (NOZZLES) Describe the functions of nozzles in air ejectors</t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295021AA2.06) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295018AA2.02) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Cooling water temperature</t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295023AA2.03) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Airborne contamination levels</t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(500000) (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION (G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295014AA2.06) Ability to determine and/or interpret the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.10 / 43.5 / 45.13) Cold water injection</t>
-  </si>
-  <si>
-    <t>(295029) (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL (G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
-  </si>
-  <si>
-    <t>(209001A2.04) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) DC failures</t>
-  </si>
-  <si>
-    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.1.6) CONDUCT OF OPERATIONS Ability to manage the control room crew during plant transients (SRO Only) (CFR: 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(239002A2.01) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Stuck-open vacuum breakers</t>
-  </si>
-  <si>
-    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
-  </si>
-  <si>
-    <t>(510001A2.04) Ability to (a) predict the impacts of the following on the (SF8 CWS*) CIRCULATING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) System leakage/rupture</t>
-  </si>
-  <si>
-    <t>(272000) (SF7, SF9 RMS) RADIATION MONITORING SYSTEM  (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(233000A2.19) Ability to (a) predict the impacts of the following on the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadequate system/pool chemistry</t>
-  </si>
-  <si>
-    <t>(G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
+    <t>(293003K1.12) STEAM (CFR: 41.14) Define the following term: Quality</t>
+  </si>
+  <si>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295026EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool water temperature</t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295005AA2.07) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295016AA2.02) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295017) (APE 17) ABNORMAL OFFSITE RELEASE RATE (G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295033EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Emergency plan</t>
+  </si>
+  <si>
+    <t>(295007) (APE 7) HIGH REACTOR PRESSURE (G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(262002A2.03) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Frequency malfunctions in the system</t>
+  </si>
+  <si>
+    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(223002A2.02) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) DC electrical distribution failures</t>
+  </si>
+  <si>
+    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.1.6) CONDUCT OF OPERATIONS Ability to manage the control room crew during plant transients (SRO Only) (CFR: 43.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(226001A2.19) Ability to (a) predict the impacts of the following on the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low (or negative) suppression chamber pressure during system operation (Mark I, II)</t>
+  </si>
+  <si>
+    <t>(290001) (SF5 SC) SECONDARY CONTAINMENT (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(271000A2.16) Ability to (a) predict the impacts of the following on the (SF9 OG) OFFGAS SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6 / 45.8) Loss of offgas system loop seals</t>
+  </si>
+  <si>
+    <t>(G2.1.35) CONDUCT OF OPERATIONS Knowledge of the fuel handling responsibilities of SROs (SRO Only) (CFR: 43.7)</t>
   </si>
   <si>
     <t>(G2.1.42) CONDUCT OF OPERATIONS Knowledge of new and spent fuel movement procedures (SRO Only) (CFR: 43.7 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.2.25) EQUIPMENT CONTROL Knowledge of the bases in technical specifications for limiting conditions for operation and safety limits (SRO Only) (CFR: 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
+  </si>
+  <si>
+    <t>(G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>K2</t>
   </si>
   <si>
@@ -355,12 +355,12 @@
     <t>A4</t>
   </si>
   <si>
+    <t>A3</t>
+  </si>
+  <si>
     <t>K5</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>K4</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
     <t>295031</t>
   </si>
   <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
     <t>295021</t>
   </si>
   <si>
-    <t>700000</t>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295006</t>
   </si>
   <si>
     <t>295018</t>
   </si>
   <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295003</t>
+    <t>295030</t>
   </si>
   <si>
     <t>295027</t>
   </si>
   <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295009</t>
+    <t>295014</t>
+  </si>
+  <si>
+    <t>295029</t>
+  </si>
+  <si>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>295010</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>290002</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>295033</t>
   </si>
   <si>
     <t>295007</t>
   </si>
   <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>295036</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>202002</t>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>290001</t>
   </si>
   <si>
     <t>271000</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292004</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>272000</t>
-  </si>
-  <si>
-    <t>233000</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1446,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1599,7 +1599,7 @@
         <v>3.7</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D44" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D45" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D47" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1837,7 +1837,7 @@
         <v>4.2</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1888,7 +1888,7 @@
         <v>2.9</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D60" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D61" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D64" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="D77" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,7 +2276,7 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D78" t="s">
         <v>105</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D79" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,7 +2310,7 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D80" t="s">
         <v>105</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D81" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,7 +2344,7 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="D82" t="s">
         <v>105</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="D83" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="D84" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,7 +2395,7 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D85" t="s">
         <v>105</v>
@@ -2415,7 +2415,7 @@
         <v>4.2</v>
       </c>
       <c r="D86" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="D87" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,7 +2446,7 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="D88" t="s">
         <v>105</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="D89" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="D91" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,7 +2514,7 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D92" t="s">
         <v>105</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D93" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,7 +2548,7 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="D94" t="s">
         <v>105</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
